--- a/Resource/Document/Wave.xlsx
+++ b/Resource/Document/Wave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\d2d\JDEngine\Resource\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FA661E-33E0-4169-A7F4-2BEB98A3ED24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3757B-FC6B-49B2-A308-0F43AF5879E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="6495" xr2:uid="{7F2AD2E9-CA8E-4DF2-BDF3-C788B345C094}"/>
   </bookViews>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Expert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,10 @@
   <si>
     <t>JDGameSystem::UnitCounts
 {Novice, Expert} // int, int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,6 +315,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -342,35 +345,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +689,7 @@
   <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -826,125 +826,125 @@
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="24">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
         <v>300</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="7">
         <v>500</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="7">
         <v>800</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="7">
         <v>1000</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="7">
         <v>1300</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="7">
         <v>1500</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="7">
         <v>1800</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="7">
         <v>2000</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="7">
         <v>2300</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="7">
         <v>2500</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="7">
         <v>2800</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="7">
         <v>3000</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
